--- a/2022/Price List/Realme Price List 14.06.2022.xlsx
+++ b/2022/Price List/Realme Price List 14.06.2022.xlsx
@@ -235,10 +235,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 15-06-2022)</t>
-  </si>
-  <si>
     <t>Realme Price List (Last Update 15-06-2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 28-06-2022)</t>
   </si>
 </sst>
 </file>
@@ -627,6 +627,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,27 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3153,33 +3153,33 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3193,7 +3193,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4">
         <v>8990</v>
@@ -3203,7 +3203,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4">
         <v>10990</v>
@@ -3213,7 +3213,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10">
@@ -3227,7 +3227,7 @@
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="10">
@@ -3241,7 +3241,7 @@
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12">
         <v>10320</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10">
@@ -3273,7 +3273,7 @@
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12">
@@ -3287,7 +3287,7 @@
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="12">
@@ -3301,7 +3301,7 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10">
@@ -3315,7 +3315,7 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10">
@@ -3327,13 +3327,13 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="12">
@@ -3358,7 +3358,7 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="10">
@@ -3375,7 +3375,7 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="10">
@@ -3387,13 +3387,13 @@
     </row>
     <row r="19" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="49"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="G20" s="6"/>
@@ -3418,8 +3418,8 @@
   </sheetPr>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,28 +3435,28 @@
   <sheetData>
     <row r="1" spans="2:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
@@ -3727,22 +3727,22 @@
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="35"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/2022/Price List/Realme Price List 14.06.2022.xlsx
+++ b/2022/Price List/Realme Price List 14.06.2022.xlsx
@@ -3418,8 +3418,8 @@
   </sheetPr>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
